--- a/数据整理/stocks/A股/科创板/688439-振华风光.xlsx
+++ b/数据整理/stocks/A股/科创板/688439-振华风光.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.37</v>
       </c>
     </row>
@@ -498,6 +515,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1822</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
